--- a/Cura_AutomationTesting_TestSenatios_001.xlsx
+++ b/Cura_AutomationTesting_TestSenatios_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE26E619-5B2D-440A-A88D-CC195DA99963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF256929-759F-4664-A3A5-D19C5CE49EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0453D69-84DC-49F0-9884-104C75330ED5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -64,13 +64,19 @@
   </si>
   <si>
     <t>validate the home page</t>
+  </si>
+  <si>
+    <t>validate after appointment return to homepage</t>
+  </si>
+  <si>
+    <t>Tc_005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +87,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -107,9 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,16 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E797E4-72AA-4EBA-867F-4573B14ADA67}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,6 +492,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
